--- a/Content/Configs/卡牌信息表.xlsx
+++ b/Content/Configs/卡牌信息表.xlsx
@@ -1984,7 +1984,7 @@
         <v>47</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
@@ -2016,7 +2016,7 @@
         <v>50</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>51</v>
@@ -2048,7 +2048,7 @@
         <v>53</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
@@ -2080,7 +2080,7 @@
         <v>56</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>57</v>
@@ -2112,7 +2112,7 @@
         <v>59</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>60</v>
@@ -2144,7 +2144,7 @@
         <v>62</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>63</v>
@@ -2176,7 +2176,7 @@
         <v>65</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>66</v>
@@ -2208,7 +2208,7 @@
         <v>68</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>69</v>
@@ -2240,7 +2240,7 @@
         <v>72</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>73</v>
@@ -2272,7 +2272,7 @@
         <v>75</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>76</v>
@@ -2304,7 +2304,7 @@
         <v>78</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>79</v>
@@ -2336,7 +2336,7 @@
         <v>81</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>82</v>
@@ -2368,7 +2368,7 @@
         <v>84</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>85</v>
@@ -2400,7 +2400,7 @@
         <v>87</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>88</v>
@@ -2432,7 +2432,7 @@
         <v>90</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>91</v>
@@ -2464,7 +2464,7 @@
         <v>93</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>94</v>
@@ -2496,7 +2496,7 @@
         <v>97</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>98</v>
@@ -2528,7 +2528,7 @@
         <v>100</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>101</v>
@@ -2560,7 +2560,7 @@
         <v>103</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>104</v>
@@ -2592,7 +2592,7 @@
         <v>106</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>107</v>
@@ -2624,7 +2624,7 @@
         <v>109</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>110</v>
@@ -2656,7 +2656,7 @@
         <v>112</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>113</v>
@@ -2688,7 +2688,7 @@
         <v>115</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>116</v>
@@ -2720,7 +2720,7 @@
         <v>118</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>119</v>
@@ -2752,7 +2752,7 @@
         <v>122</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>123</v>
@@ -2784,7 +2784,7 @@
         <v>125</v>
       </c>
       <c r="I35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>126</v>
@@ -2816,7 +2816,7 @@
         <v>128</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>129</v>
@@ -2848,7 +2848,7 @@
         <v>131</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>132</v>
@@ -2880,7 +2880,7 @@
         <v>134</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>135</v>
@@ -2912,7 +2912,7 @@
         <v>137</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>138</v>
@@ -2944,7 +2944,7 @@
         <v>140</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>141</v>
@@ -2976,7 +2976,7 @@
         <v>143</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>144</v>

--- a/Content/Configs/卡牌信息表.xlsx
+++ b/Content/Configs/卡牌信息表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>卡牌牌数</t>
+  </si>
+  <si>
+    <t>最大选项等级</t>
   </si>
   <si>
     <t>卡牌图片</t>
@@ -1648,7 +1651,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1660,14 +1663,15 @@
     <col min="2" max="2" width="3.375" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="7" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="106.5" customWidth="1"/>
-    <col min="9" max="9" width="6.375" customWidth="1"/>
-    <col min="10" max="10" width="172.625" customWidth="1"/>
-    <col min="11" max="11" width="5.125" customWidth="1"/>
-    <col min="12" max="16384" width="6.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="106.5" customWidth="1"/>
+    <col min="10" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="11" width="172.625" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="16384" width="6.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
+    <row r="1" ht="15" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1695,14 +1699,17 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1710,31 +1717,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1742,31 +1752,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1774,31 +1787,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1806,31 +1822,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1838,31 +1857,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1870,31 +1892,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1902,31 +1927,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1934,31 +1962,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1966,31 +1997,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1998,31 +2032,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2030,31 +2067,34 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2062,31 +2102,34 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2094,31 +2137,34 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2126,31 +2172,34 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2158,31 +2207,34 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="H16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2190,31 +2242,34 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
-      <c r="H17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2222,31 +2277,34 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
-      <c r="H18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2254,31 +2312,34 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2286,31 +2347,34 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
-      <c r="H20" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2318,31 +2382,34 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2350,31 +2417,34 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2382,31 +2452,34 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2414,31 +2487,34 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
-      <c r="H24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2446,31 +2522,34 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
-      <c r="H25" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2478,31 +2557,34 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
-      <c r="H26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2510,31 +2592,34 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
-      <c r="H27" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2542,31 +2627,34 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
-      <c r="H28" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2574,31 +2662,34 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2606,31 +2697,34 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2638,31 +2732,34 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" t="s">
-        <v>112</v>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2670,31 +2767,34 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
-      <c r="H32" t="s">
-        <v>115</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2702,31 +2802,34 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
-      <c r="H33" t="s">
-        <v>118</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2734,31 +2837,34 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
-      <c r="H34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2766,31 +2872,34 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
-      <c r="H35" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2798,31 +2907,34 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
-      <c r="H36" t="s">
-        <v>128</v>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2830,31 +2942,34 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" t="s">
-        <v>131</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2862,31 +2977,34 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2894,31 +3012,34 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2926,31 +3047,34 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
-      <c r="H40" t="s">
-        <v>140</v>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2958,28 +3082,31 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
-      <c r="H41" t="s">
-        <v>143</v>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41" t="s">
         <v>144</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Content/Configs/卡牌信息表.xlsx
+++ b/Content/Configs/卡牌信息表.xlsx
@@ -1654,7 +1654,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J37" sqref="J37:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="13.5"/>
@@ -2928,7 +2928,7 @@
         <v>129</v>
       </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="s">
         <v>130</v>
@@ -2963,7 +2963,7 @@
         <v>132</v>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
         <v>133</v>
@@ -2998,7 +2998,7 @@
         <v>135</v>
       </c>
       <c r="J38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="s">
         <v>136</v>
@@ -3033,7 +3033,7 @@
         <v>138</v>
       </c>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="s">
         <v>139</v>
@@ -3068,7 +3068,7 @@
         <v>141</v>
       </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
         <v>142</v>
@@ -3103,7 +3103,7 @@
         <v>144</v>
       </c>
       <c r="J41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="s">
         <v>145</v>

--- a/Content/Configs/卡牌信息表.xlsx
+++ b/Content/Configs/卡牌信息表.xlsx
@@ -1654,7 +1654,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37:J41"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="13.5"/>
@@ -2928,7 +2928,7 @@
         <v>129</v>
       </c>
       <c r="J36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
         <v>130</v>
@@ -2963,7 +2963,7 @@
         <v>132</v>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="s">
         <v>133</v>
@@ -2998,7 +2998,7 @@
         <v>135</v>
       </c>
       <c r="J38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="s">
         <v>136</v>
@@ -3033,7 +3033,7 @@
         <v>138</v>
       </c>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
         <v>139</v>
@@ -3068,7 +3068,7 @@
         <v>141</v>
       </c>
       <c r="J40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
         <v>142</v>
@@ -3103,7 +3103,7 @@
         <v>144</v>
       </c>
       <c r="J41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="s">
         <v>145</v>
